--- a/Java-PTTK-CTDL_Question/data-full-level.xlsx
+++ b/Java-PTTK-CTDL_Question/data-full-level.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1505">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">B. a-1, b-2, c-2, d-1, e-3</t>
   </si>
   <si>
-    <t xml:space="preserve">. a-1, b-5, c-4, d-4, e-3</t>
+    <t xml:space="preserve">C. a-1, b-5, c-4, d-4, e-3</t>
   </si>
   <si>
     <t xml:space="preserve">D. a-5, b-4, c-1, d-2, e-3</t>
@@ -4499,21 +4499,6 @@
   </si>
   <si>
     <t xml:space="preserve">D. Khả thi về chất lượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Có định hướng thời gian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Có giá trị pháp lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Tính mô tả trừu tượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Có thể mô tả bằng toán học</t>
   </si>
   <si>
     <t xml:space="preserve">Câu hỏi nào có liên quan đến phân tích thiết kế?</t>
@@ -5515,13 +5500,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.12"/>
@@ -13876,15 +13861,15 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>1273</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="D322" s="13" t="s">
+      <c r="D322" s="8" t="s">
         <v>1275</v>
       </c>
       <c r="E322" s="8" t="s">
@@ -13894,20 +13879,20 @@
         <v>1277</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H322" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="n">
-        <v>322</v>
-      </c>
-      <c r="B323" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="12" t="s">
         <v>1278</v>
       </c>
-      <c r="C323" s="13" t="s">
+      <c r="C323" s="8" t="s">
         <v>1279</v>
       </c>
       <c r="D323" s="8" t="s">
@@ -13920,15 +13905,15 @@
         <v>1282</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H323" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" s="12" t="s">
         <v>1283</v>
@@ -13946,17 +13931,17 @@
         <v>1287</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H324" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="n">
-        <v>324</v>
-      </c>
-      <c r="B325" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="C325" s="8" t="s">
@@ -13972,15 +13957,15 @@
         <v>1292</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H325" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>1293</v>
@@ -13998,7 +13983,7 @@
         <v>1297</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H326" s="5" t="n">
         <v>3</v>
@@ -14006,25 +13991,25 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>1298</v>
       </c>
-      <c r="C327" s="8" t="s">
-        <v>1299</v>
+      <c r="C327" s="13" t="s">
+        <v>1294</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F327" s="8" t="s">
-        <v>1302</v>
+        <v>1296</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>1297</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H327" s="5" t="n">
         <v>3</v>
@@ -14032,33 +14017,33 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F328" s="8" t="s">
         <v>1303</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F328" s="5" t="s">
-        <v>1302</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H328" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>1304</v>
@@ -14069,7 +14054,7 @@
       <c r="D329" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="E329" s="13" t="s">
+      <c r="E329" s="8" t="s">
         <v>1307</v>
       </c>
       <c r="F329" s="8" t="s">
@@ -14079,17 +14064,17 @@
         <v>40</v>
       </c>
       <c r="H329" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>1309</v>
       </c>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="13" t="s">
         <v>1310</v>
       </c>
       <c r="D330" s="8" t="s">
@@ -14102,7 +14087,7 @@
         <v>1313</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H330" s="5" t="n">
         <v>3</v>
@@ -14110,39 +14095,39 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="n">
-        <v>330</v>
-      </c>
-      <c r="B331" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" s="12" t="s">
         <v>1314</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="C331" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D331" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="D331" s="8" t="s">
+      <c r="E331" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="E331" s="8" t="s">
+      <c r="F331" s="8" t="s">
         <v>1317</v>
       </c>
-      <c r="F331" s="8" t="s">
-        <v>1318</v>
-      </c>
       <c r="G331" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H331" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="n">
-        <v>331</v>
-      </c>
-      <c r="B332" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>1319</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>1310</v>
       </c>
       <c r="D332" s="8" t="s">
         <v>1320</v>
@@ -14150,33 +14135,33 @@
       <c r="E332" s="8" t="s">
         <v>1321</v>
       </c>
-      <c r="F332" s="8" t="s">
+      <c r="F332" s="5" t="s">
         <v>1322</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H332" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="C333" s="13" t="s">
+      <c r="C333" s="8" t="s">
         <v>1324</v>
       </c>
       <c r="D333" s="8" t="s">
         <v>1325</v>
       </c>
-      <c r="E333" s="8" t="s">
+      <c r="E333" s="13" t="s">
         <v>1326</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" s="8" t="s">
         <v>1327</v>
       </c>
       <c r="G333" s="6" t="s">
@@ -14188,12 +14173,12 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="n">
-        <v>333</v>
-      </c>
-      <c r="B334" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" s="12" t="s">
         <v>1328</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="13" t="s">
         <v>1329</v>
       </c>
       <c r="D334" s="8" t="s">
@@ -14202,11 +14187,11 @@
       <c r="E334" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="F334" s="8" t="s">
+      <c r="F334" s="5" t="s">
         <v>1332</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H334" s="5" t="n">
         <v>3</v>
@@ -14214,12 +14199,12 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" s="12" t="s">
         <v>1333</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="C335" s="8" t="s">
         <v>1334</v>
       </c>
       <c r="D335" s="8" t="s">
@@ -14228,11 +14213,11 @@
       <c r="E335" s="13" t="s">
         <v>1336</v>
       </c>
-      <c r="F335" s="5" t="s">
+      <c r="F335" s="8" t="s">
         <v>1337</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H335" s="5" t="n">
         <v>3</v>
@@ -14240,7 +14225,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" s="12" t="s">
         <v>1338</v>
@@ -14258,7 +14243,7 @@
         <v>1342</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H336" s="5" t="n">
         <v>3</v>
@@ -14266,9 +14251,9 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="n">
-        <v>336</v>
-      </c>
-      <c r="B337" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="10" t="s">
         <v>1343</v>
       </c>
       <c r="C337" s="8" t="s">
@@ -14277,7 +14262,7 @@
       <c r="D337" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="E337" s="13" t="s">
+      <c r="E337" s="8" t="s">
         <v>1346</v>
       </c>
       <c r="F337" s="8" t="s">
@@ -14292,7 +14277,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>1348</v>
@@ -14300,7 +14285,7 @@
       <c r="C338" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="D338" s="8" t="s">
+      <c r="D338" s="13" t="s">
         <v>1350</v>
       </c>
       <c r="E338" s="8" t="s">
@@ -14310,7 +14295,7 @@
         <v>1352</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H338" s="5" t="n">
         <v>3</v>
@@ -14318,7 +14303,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>1353</v>
@@ -14326,40 +14311,40 @@
       <c r="C339" s="8" t="s">
         <v>1354</v>
       </c>
-      <c r="D339" s="13" t="s">
+      <c r="D339" s="8" t="s">
         <v>1355</v>
       </c>
       <c r="E339" s="8" t="s">
         <v>1356</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>1357</v>
+        <v>768</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H339" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="4" t="n">
-        <v>339</v>
-      </c>
-      <c r="B340" s="10" t="s">
+      <c r="A340" s="15" t="n">
+        <v>340</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C340" s="8" t="s">
         <v>1358</v>
       </c>
-      <c r="C340" s="8" t="s">
+      <c r="D340" s="8" t="s">
         <v>1359</v>
       </c>
-      <c r="D340" s="8" t="s">
+      <c r="E340" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="E340" s="8" t="s">
+      <c r="F340" s="5" t="s">
         <v>1361</v>
-      </c>
-      <c r="F340" s="8" t="s">
-        <v>768</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>24</v>
@@ -14369,10 +14354,10 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="15" t="n">
-        <v>340</v>
-      </c>
-      <c r="B341" s="12" t="s">
+      <c r="A341" s="4" t="n">
+        <v>341</v>
+      </c>
+      <c r="B341" s="10" t="s">
         <v>1362</v>
       </c>
       <c r="C341" s="8" t="s">
@@ -14384,11 +14369,11 @@
       <c r="E341" s="8" t="s">
         <v>1365</v>
       </c>
-      <c r="F341" s="5" t="s">
+      <c r="F341" s="8" t="s">
         <v>1366</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H341" s="5" t="n">
         <v>3</v>
@@ -14396,9 +14381,9 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="n">
-        <v>341</v>
-      </c>
-      <c r="B342" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="12" t="s">
         <v>1367</v>
       </c>
       <c r="C342" s="8" t="s">
@@ -14410,21 +14395,21 @@
       <c r="E342" s="8" t="s">
         <v>1370</v>
       </c>
-      <c r="F342" s="8" t="s">
+      <c r="F342" s="5" t="s">
         <v>1371</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H342" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="n">
-        <v>342</v>
-      </c>
-      <c r="B343" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="10" t="s">
         <v>1372</v>
       </c>
       <c r="C343" s="8" t="s">
@@ -14436,7 +14421,7 @@
       <c r="E343" s="8" t="s">
         <v>1375</v>
       </c>
-      <c r="F343" s="5" t="s">
+      <c r="F343" s="8" t="s">
         <v>1376</v>
       </c>
       <c r="G343" s="6" t="s">
@@ -14448,12 +14433,12 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="C344" s="8" t="s">
+      <c r="C344" s="13" t="s">
         <v>1378</v>
       </c>
       <c r="D344" s="8" t="s">
@@ -14466,20 +14451,20 @@
         <v>1381</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H344" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B345" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="C345" s="13" t="s">
+      <c r="C345" s="8" t="s">
         <v>1383</v>
       </c>
       <c r="D345" s="8" t="s">
@@ -14492,59 +14477,59 @@
         <v>1386</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H345" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="n">
-        <v>345</v>
-      </c>
-      <c r="B346" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="C346" s="8" t="s">
+      <c r="C346" s="13" t="s">
         <v>1388</v>
       </c>
       <c r="D346" s="8" t="s">
         <v>1389</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E346" s="13" t="s">
         <v>1390</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>1391</v>
+        <v>768</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H346" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C347" s="8" t="s">
         <v>1392</v>
       </c>
-      <c r="C347" s="13" t="s">
+      <c r="D347" s="8" t="s">
         <v>1393</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="E347" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="E347" s="13" t="s">
+      <c r="F347" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="F347" s="8" t="s">
-        <v>768</v>
-      </c>
       <c r="G347" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H347" s="5" t="n">
         <v>3</v>
@@ -14552,7 +14537,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>1396</v>
@@ -14563,7 +14548,7 @@
       <c r="D348" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="E348" s="13" t="s">
+      <c r="E348" s="8" t="s">
         <v>1399</v>
       </c>
       <c r="F348" s="8" t="s">
@@ -14573,17 +14558,17 @@
         <v>24</v>
       </c>
       <c r="H348" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="n">
-        <v>348</v>
-      </c>
-      <c r="B349" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="C349" s="8" t="s">
+      <c r="C349" s="13" t="s">
         <v>1402</v>
       </c>
       <c r="D349" s="8" t="s">
@@ -14596,7 +14581,7 @@
         <v>1405</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H349" s="5" t="n">
         <v>4</v>
@@ -14604,33 +14589,33 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="C350" s="13" t="s">
+      <c r="C350" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="D350" s="8" t="s">
+      <c r="D350" s="13" t="s">
         <v>1408</v>
       </c>
-      <c r="E350" s="8" t="s">
+      <c r="E350" s="13" t="s">
         <v>1409</v>
       </c>
       <c r="F350" s="8" t="s">
         <v>1410</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H350" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>1411</v>
@@ -14638,27 +14623,27 @@
       <c r="C351" s="8" t="s">
         <v>1412</v>
       </c>
-      <c r="D351" s="13" t="s">
+      <c r="D351" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="E351" s="13" t="s">
+      <c r="E351" s="8" t="s">
         <v>1414</v>
       </c>
       <c r="F351" s="8" t="s">
         <v>1415</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H351" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="n">
-        <v>351</v>
-      </c>
-      <c r="B352" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="12" t="s">
         <v>1416</v>
       </c>
       <c r="C352" s="8" t="s">
@@ -14677,14 +14662,14 @@
         <v>13</v>
       </c>
       <c r="H352" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="n">
-        <v>352</v>
-      </c>
-      <c r="B353" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="10" t="s">
         <v>1421</v>
       </c>
       <c r="C353" s="8" t="s">
@@ -14700,33 +14685,33 @@
         <v>1425</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H353" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="n">
-        <v>353</v>
-      </c>
-      <c r="B354" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="12" t="s">
         <v>1426</v>
       </c>
-      <c r="C354" s="8" t="s">
-        <v>1427</v>
+      <c r="C354" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>1428</v>
+        <v>249</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>1429</v>
+        <v>90</v>
       </c>
       <c r="F354" s="8" t="s">
-        <v>1430</v>
+        <v>295</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H354" s="5" t="n">
         <v>4</v>
@@ -14734,51 +14719,51 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="n">
-        <v>354</v>
-      </c>
-      <c r="B355" s="12" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>88</v>
+        <v>355</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>1428</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>249</v>
+        <v>1429</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>90</v>
+        <v>469</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>295</v>
+        <v>1118</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H355" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D356" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F356" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="C356" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E356" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F356" s="8" t="s">
-        <v>1118</v>
-      </c>
       <c r="G356" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H356" s="5" t="n">
         <v>3</v>
@@ -14786,16 +14771,16 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D357" s="13" t="s">
         <v>1435</v>
-      </c>
-      <c r="C357" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D357" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="E357" s="8" t="s">
         <v>1436</v>
@@ -14804,7 +14789,7 @@
         <v>1437</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H357" s="5" t="n">
         <v>3</v>
@@ -14812,15 +14797,15 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C358" s="8" t="s">
         <v>1439</v>
       </c>
-      <c r="D358" s="13" t="s">
+      <c r="D358" s="8" t="s">
         <v>1440</v>
       </c>
       <c r="E358" s="8" t="s">
@@ -14833,12 +14818,12 @@
         <v>40</v>
       </c>
       <c r="H358" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>1443</v>
@@ -14856,15 +14841,15 @@
         <v>1447</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H359" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="4" t="n">
-        <v>359</v>
+      <c r="A360" s="15" t="n">
+        <v>360</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>1448</v>
@@ -14882,15 +14867,15 @@
         <v>1452</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H360" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="15" t="n">
-        <v>360</v>
+      <c r="A361" s="4" t="n">
+        <v>361</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>1453</v>
@@ -14908,7 +14893,7 @@
         <v>1457</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H361" s="5" t="n">
         <v>5</v>
@@ -14916,7 +14901,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>1458</v>
@@ -14924,56 +14909,56 @@
       <c r="C362" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="D362" s="8" t="s">
+      <c r="D362" s="13" t="s">
         <v>1460</v>
       </c>
       <c r="E362" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="F362" s="8" t="s">
+      <c r="F362" s="5" t="s">
         <v>1462</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H362" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="C363" s="8" t="s">
+      <c r="C363" s="13" t="s">
         <v>1464</v>
       </c>
-      <c r="D363" s="13" t="s">
+      <c r="D363" s="8" t="s">
         <v>1465</v>
       </c>
       <c r="E363" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="F363" s="5" t="s">
+      <c r="F363" s="8" t="s">
         <v>1467</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H363" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>1468</v>
       </c>
-      <c r="C364" s="13" t="s">
+      <c r="C364" s="8" t="s">
         <v>1469</v>
       </c>
       <c r="D364" s="8" t="s">
@@ -14986,85 +14971,85 @@
         <v>1472</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H364" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C365" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="C365" s="8" t="s">
+      <c r="D365" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E365" s="8" t="s">
         <v>1474</v>
       </c>
-      <c r="D365" s="8" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E365" s="8" t="s">
-        <v>1476</v>
-      </c>
       <c r="F365" s="8" t="s">
-        <v>1477</v>
+        <v>91</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H365" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>1116</v>
+        <v>1475</v>
       </c>
       <c r="C366" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E366" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="D366" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E366" s="8" t="s">
+      <c r="F366" s="8" t="s">
         <v>1479</v>
       </c>
-      <c r="F366" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="G366" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H366" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>1482</v>
+        <v>848</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>850</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>1483</v>
+        <v>851</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>1484</v>
+        <v>852</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H367" s="5" t="n">
         <v>3</v>
@@ -15072,73 +15057,73 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="n">
-        <v>367</v>
-      </c>
-      <c r="B368" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="C368" s="13" t="s">
-        <v>1122</v>
+        <v>368</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>1480</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>850</v>
+        <v>1481</v>
       </c>
       <c r="E368" s="8" t="s">
-        <v>851</v>
+        <v>1399</v>
       </c>
       <c r="F368" s="8" t="s">
-        <v>852</v>
+        <v>1482</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H368" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="n">
-        <v>368</v>
-      </c>
-      <c r="B369" s="12" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C369" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D369" s="8" t="s">
         <v>1485</v>
       </c>
-      <c r="D369" s="8" t="s">
+      <c r="E369" s="5" t="s">
         <v>1486</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>1404</v>
       </c>
       <c r="F369" s="8" t="s">
         <v>1487</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H369" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="n">
-        <v>369</v>
-      </c>
-      <c r="B370" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="12" t="s">
         <v>1488</v>
       </c>
-      <c r="C370" s="13" t="s">
+      <c r="C370" s="8" t="s">
         <v>1489</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>1490</v>
       </c>
-      <c r="E370" s="5" t="s">
+      <c r="E370" s="8" t="s">
         <v>1491</v>
       </c>
-      <c r="F370" s="8" t="s">
+      <c r="F370" s="5" t="s">
         <v>1492</v>
       </c>
       <c r="G370" s="6" t="s">
@@ -15150,7 +15135,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371" s="12" t="s">
         <v>1493</v>
@@ -15164,11 +15149,11 @@
       <c r="E371" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" s="8" t="s">
         <v>1497</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H371" s="5" t="n">
         <v>3</v>
@@ -15176,107 +15161,84 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="n">
-        <v>371</v>
-      </c>
-      <c r="B372" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="10" t="s">
         <v>1498</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>1499</v>
+        <v>765</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E372" s="8" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F372" s="8" t="s">
-        <v>1502</v>
+        <v>766</v>
+      </c>
+      <c r="E372" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>768</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H372" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>765</v>
+        <v>1499</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>1122</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>766</v>
+        <v>850</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>768</v>
+        <v>851</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>852</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H373" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="n">
-        <v>373</v>
-      </c>
-      <c r="B374" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F374" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="C374" s="13" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="E374" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="F374" s="8" t="s">
-        <v>852</v>
-      </c>
       <c r="G374" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H374" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="4" t="n">
-        <v>374</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C375" s="8" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E375" s="8" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G375" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H375" s="5" t="n">
-        <v>3</v>
-      </c>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H375" s="17"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H376" s="17"/>
@@ -17150,9 +17112,7 @@
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H999" s="17"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H1000" s="17"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
